--- a/建表.xlsx
+++ b/建表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9F1F0E-C11D-419C-847A-C08C396C0486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3C730-477A-4861-9521-E64F660C8C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7152" yWindow="0" windowWidth="15588" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,11 +223,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>剩余支数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>订单进货流水表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余支数</t>
+  </si>
+  <si>
+    <t>商品库存表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货成本均价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -718,7 +725,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -791,7 +798,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,14 +925,67 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/建表.xlsx
+++ b/建表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3C730-477A-4861-9521-E64F660C8C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE79707D-C272-4D9C-913E-0E44CA9796AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7152" yWindow="0" windowWidth="15588" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1572" yWindow="0" windowWidth="15588" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,126 @@
   </si>
   <si>
     <t>进货成本均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPP_MERCHANT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPP_MERCHANT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPP_MERCHANT_TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGISTISC_FEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDATE_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS_TM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTFLD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTFLD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTFLD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_TICKNESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_THEORY_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_ACTUAL_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS_JNNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGISTISC_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_ORIGN_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_FEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMAIN_COUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,14 +713,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
@@ -621,56 +741,89 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -679,46 +832,73 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
@@ -727,76 +907,121 @@
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>49</v>
       </c>

--- a/建表.xlsx
+++ b/建表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE79707D-C272-4D9C-913E-0E44CA9796AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506E42B-26B5-4C59-A7D2-D07979EE8367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="0" windowWidth="15588" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运费单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,18 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物流单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货重量(吨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货数量()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搬运单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,18 +143,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进货总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进货成本单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进货出厂单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进货日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流水号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改，新增，删除,查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,38 +191,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余支数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单进货流水表</t>
-  </si>
-  <si>
     <t>商品库存表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进货成本均价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPP_MERCHANT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPP_MERCHANT_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPP_MERCHANT_TEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGISTISC_FEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDATE_DT</t>
+    <t>MANUFACTURER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURER_CODE</t>
+  </si>
+  <si>
+    <t>MANUFACTURER_TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,79 +234,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROD_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_KIND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_TICKNESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_LENGTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_THEORY_WEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_ACTUAL_WEIGHT</t>
+    <t>PRODUCT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_THICKNESS</t>
+  </si>
+  <si>
+    <t>PRODUCT_THICKNESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_KINDS</t>
+  </si>
+  <si>
+    <t>PRODUCT_KINDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_LENGTH</t>
+  </si>
+  <si>
+    <t>PRODUCT_LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_THEORY_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_ACTUL_WEIGHT</t>
+  </si>
+  <si>
+    <t>CREAT_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE_DT</t>
+  </si>
+  <si>
+    <t>TRANS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPLIER_NM</t>
+  </si>
+  <si>
+    <t>SUPPLIER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPLIER_CD</t>
+  </si>
+  <si>
+    <t>SUPPLIER_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORTATION_EXPENSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品出厂单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_OUT_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORTATION_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARRY_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_STORAGE_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库重量(吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_STORAGE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存支数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVENTORY_NUM</t>
+  </si>
+  <si>
+    <t>INVENTORY_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_COUNT</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品出厂总金额</t>
+  </si>
+  <si>
+    <t>PRODUCT_OUT_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库成本单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_STORAGE_PRICE</t>
+  </si>
+  <si>
+    <t>IN_STORAGE_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT修改，新增，删除,查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALE_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALE_TON_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALE_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARR_PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单入库流水表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURCHASE_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANS_JNNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGISTISC_PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_ORIGN_PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERSON_FEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_WEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROD_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMAIN_COUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,6 +495,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF00FFFF"/>
       <color rgb="FFFFFFFF"/>
@@ -711,22 +842,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -734,483 +865,593 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
-        <v>6</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
